--- a/用例数据/深A/卖空冲销/测试结果.xlsx
+++ b/用例数据/深A/卖空冲销/测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\卖空冲销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4496C-333B-45EE-839C-2164AC7EABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF2007-68CD-42C5-A7EC-976993174DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="263">
   <si>
     <t>EXCHID</t>
   </si>
@@ -812,6 +812,10 @@
   </si>
   <si>
     <t>000007320357</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1950,7 +1954,7 @@
   <dimension ref="A1:EI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2433,7 +2437,7 @@
         <v>243</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>94</v>
@@ -2762,7 +2766,7 @@
         <v>243</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>94</v>
